--- a/Founder_Analysis_after_resampling/founder_clusters_analysis_8_20.xlsx
+++ b/Founder_Analysis_after_resampling/founder_clusters_analysis_8_20.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\VelaResearch\GITHUB_after_resampling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\VelaResearch\GITHUB_after_resampling\Founder_Analysis_after_resampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384EE9B9-44C7-469F-8B96-409DFBB6CD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0B0913-96BA-464B-B1C3-05F6F609C941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27636" yWindow="1236" windowWidth="31752" windowHeight="15036" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26628" yWindow="2472" windowWidth="31752" windowHeight="15036" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Clusters" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="318">
   <si>
     <t>Cluster ID</t>
   </si>
@@ -728,9 +728,6 @@
     <t>└── 8.2</t>
   </si>
   <si>
-    <t>Cluster 6</t>
-  </si>
-  <si>
     <t>└── 6.3</t>
   </si>
   <si>
@@ -740,9 +737,6 @@
     <t>└── 6.1</t>
   </si>
   <si>
-    <t>Cluster 7</t>
-  </si>
-  <si>
     <t>└── 7.4</t>
   </si>
   <si>
@@ -755,9 +749,6 @@
     <t>└── 7.1</t>
   </si>
   <si>
-    <t>Cluster 1</t>
-  </si>
-  <si>
     <t>└── 1.4</t>
   </si>
   <si>
@@ -776,9 +767,6 @@
     <t>└── 1.6</t>
   </si>
   <si>
-    <t>Cluster 3</t>
-  </si>
-  <si>
     <t>└── 3.5</t>
   </si>
   <si>
@@ -800,9 +788,6 @@
     <t>└── 3.1</t>
   </si>
   <si>
-    <t>Cluster 5</t>
-  </si>
-  <si>
     <t>└── 5.5</t>
   </si>
   <si>
@@ -821,9 +806,6 @@
     <t>└── 5.6</t>
   </si>
   <si>
-    <t>Cluster 2</t>
-  </si>
-  <si>
     <t>└── 2.5</t>
   </si>
   <si>
@@ -840,9 +822,6 @@
   </si>
   <si>
     <t>└── 2.1</t>
-  </si>
-  <si>
-    <t>Cluster 4</t>
   </si>
   <si>
     <t>└── 4.5</t>
@@ -901,12 +880,6 @@
     <t>nasdaq_leadership &lt;= 2.50 AND yoe &lt;= 27.24</t>
   </si>
   <si>
-    <t>previous_startup_funding_experience_as_ceo &lt;= 2.50 AND big_tech_position &gt; 0.50</t>
-  </si>
-  <si>
-    <t>previous_startup_funding_experience_as_ceo &lt;= 2.50 AND big_tech_position &lt;= 0.50 AND worked_at_consultancy &gt; 0.50</t>
-  </si>
-  <si>
     <t>previous_startup_funding_experience_as_ceo &lt;= 2.50 AND big_tech_position &lt;= 0.50 AND worked_at_consultancy &lt;= 0.50</t>
   </si>
   <si>
@@ -1025,10 +998,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Cluster 8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>yoe &lt;= 18.75</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1105,6 +1074,238 @@
 investor_quality_prior_startup ↑ (0.43)
 previous_startup_funding_experience_as_ceo ↑ (0.57)
 industry_achievements ↑ (0.61)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>previous_startup_funding_experience_as_ceo &lt;= 2.50 AND big_tech_position &gt; 0.50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>previous_startup_funding_experience_as_ceo &lt;= 2.50 AND big_tech_position &lt;= 0.50 AND worked_at_consultancy &gt; 0.50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>professional_athlete ↑ (0.99)
+competitions ↑ (0.45)
+education_extracurricular_involvement ↑ (0.69)
+ten_thousand_hours_of_mastery ↑ (0.49)
+personal_branding ↑ (0.33)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>career_growth ↑ (0.14)
+adaptability ↑ (0.24)
+significant_press_media_coverage ↓ (0.09)
+perseverance ↑ (0.22)
+press_media_coverage_count ↓ (0.13)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>career_growth ↓ (0.72)
+adaptability ↓ (1.31)
+perseverance ↓ (1.31)
+vision ↓ (0.69)
+risk_tolerance ↓ (0.94)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized Success Rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Success Probability</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cluster 8 (Acquisition Experience)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cluster 6 (IPO Experience)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cluster 7 (VC Experience)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cluster 1 (Big-Tech Experience)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cluster 3 (Media Influencer)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cluster 5 (Academic Expert)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cluster 2 (Ordinary Worker)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cluster 4 (Poor Career Development)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work Experience in Industry ≤ 19 years</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work Experience in Industry &gt; 19 years</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-level/VP/Director roles in NASDAQ 100 Tech Companies &gt; 2.5 years</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-level/VP/Director roles in NASDAQ 100 Tech Companies ≤ 2.5 years AND Work Experience &gt; 27 years</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-level/VP/Director roles in NASDAQ 100 Tech Companies ≤ 2.5 years AND Work Experience ≤ 27 years</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous startup fundraising experience as CEO &gt; 2.5 rounds (Meaning raised more than $10M)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous startup fundraising experience as CEO ≤ 2.5 rounds AND Engineering/PM/Research role at FAANG &gt; 0.5 years</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous startup fundraising experience as CEO ≤ 2.5 rounds AND Engineering/PM/Research role at FAANG ≤ 0.5 years AND Has experience at top/mid-tier consultancy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous startup fundraising experience as CEO ≤ 2.5 rounds AND Engineering/PM/Research role at FAANG ≤ 0.5 years AND No consultancy experience</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous startup fundraising as CEO &gt; 3.5 rounds (&gt;$50M raised) AND No angel investing experience AND Work Experience ≤ 31 years</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous startup fundraising as CEO ≤ 3.5 rounds AND Low adaptability score</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous startup fundraising as CEO ≤ 3.5 rounds AND High adaptability score AND NASDAQ leadership roles &gt; 2.5 years</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous startup fundraising as CEO &gt; 3.5 rounds AND No angel investing experience AND Work Experience &gt; 31 years</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous startup fundraising as CEO ≤ 3.5 rounds AND High adaptability score AND NASDAQ leadership roles ≤ 2.5 years</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous startup fundraising as CEO &gt; 3.5 rounds AND Has made angel investments</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raised more than $50M as CEO AND Work Experience ≤ 14 years</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raised less than $50M as CEO AND Raised more than $50M as Co-founder (non-CEO) AND Has Master's degree or higher</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raised more than $50M as CEO AND Work Experience &gt; 14 years AND Has NASDAQ leadership experience</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raised less than $50M as CEO AND Raised more than $50M as Co-founder (non-CEO) AND Has Bachelor's degree or lower</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raised more than $50M as CEO AND Work Experience &gt; 14 years AND No NASDAQ leadership experience</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raised less than $50M as CEO AND Raised less than $50M as Co-founder AND Prior company acquired for more than $20M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raised less than $50M as CEO AND Raised less than $50M as Co-founder AND Prior company acquired for less than $20M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Has academic publications/research AND Not participated in competitions</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>No academic publications/research AND Has NASDAQ company experience AND Worked at ≤ 5 companies</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>No academic publications/research AND No NASDAQ company experience AND Held ≤ 3 roles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>No academic publications/research AND No NASDAQ company experience AND Held &gt; 3 roles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>No academic publications/research AND Has NASDAQ company experience AND Worked at &gt; 5 companies</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Has academic publications/research AND Has participated in competitions</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Has acquisition experience AND No significant media coverage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>No acquisition experience AND Senior VC role AND Low risk tolerance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>No acquisition experience AND Junior/No VC role AND Raised more than $10M as CEO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>No acquisition experience AND Senior VC role AND High risk tolerance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Has acquisition experience AND Has significant media coverage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>No acquisition experience AND Junior/No VC role AND Raised less than $10M as CEO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Has C-level/VP experience at Fortune 500</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Fortune 500 leadership AND Top 20 University Education AND STEM degree</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Fortune 500 leadership AND Lower ranked University AND Shows career progression</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Fortune 500 leadership AND Lower ranked University AND No significant career progression</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Fortune 500 leadership AND Top 20 University Education AND Non-STEM degree</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1529,9 +1730,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2949,24 +3155,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.6640625" style="3" customWidth="1"/>
-    <col min="5" max="8" width="15.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="50.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="60.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="55.44140625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="9" width="15.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="50.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="60.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>165</v>
       </c>
@@ -2974,259 +3181,279 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
+        <v>269</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>167</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C2" s="3">
+        <v>270</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="3">
         <v>46</v>
       </c>
-      <c r="D2" s="3">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="3">
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>168</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="I3" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="6"/>
+      <c r="J3" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="3">
-        <v>23</v>
+      <c r="C4" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="D4" s="3">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3">
         <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="F4" s="8">
         <v>0.30399999999999999</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="8">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>256</v>
+        <v>23</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="3">
-        <v>23</v>
+      <c r="C5" s="7" t="s">
+        <v>280</v>
       </c>
       <c r="D5" s="3">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="8">
+      <c r="G5" s="8">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="H5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="I6" s="3"/>
+      <c r="C6" s="7"/>
       <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>167</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="3">
+        <v>271</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3">
         <v>98</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>16</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>168</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="I8" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="6"/>
+      <c r="J8" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="3">
+        <v>172</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="3">
         <v>37</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>15</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="8">
+      <c r="G9" s="8">
         <v>0.40500000000000003</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>257</v>
+        <v>23</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="3">
+        <v>173</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D10" s="3">
         <v>21</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>97</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="3">
+        <v>174</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D11" s="3">
         <v>40</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>107</v>
@@ -3235,410 +3462,446 @@
         <v>107</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>265</v>
+        <v>23</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
-      <c r="I12" s="3"/>
+      <c r="C12" s="7"/>
       <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>167</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="3">
+        <v>272</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="3">
         <v>335</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>44</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>168</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="I14" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="6"/>
+      <c r="J14" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="3">
+        <v>175</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D15" s="3">
         <v>34</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="3">
         <v>17</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="F15" s="8">
         <v>0.5</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="I15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C16" s="3">
+        <v>176</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D16" s="3">
         <v>32</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>9</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>85</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="I16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C17" s="3">
+        <v>177</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D17" s="3">
         <v>36</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
         <v>9</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>87</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="I17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18" s="3">
+        <v>178</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D18" s="3">
         <v>233</v>
       </c>
-      <c r="D18" s="3">
+      <c r="E18" s="3">
         <v>9</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>100</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
-      <c r="I19" s="3"/>
+      <c r="C19" s="7"/>
       <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>167</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C20" s="3">
+        <v>273</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3">
         <v>3959</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="3">
         <v>148</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>168</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="I21" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="6"/>
+      <c r="J21" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C22" s="3">
+        <v>179</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D22" s="3">
         <v>25</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="3">
         <v>20</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="I22" s="3" t="s">
-        <v>269</v>
+        <v>23</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C23" s="3">
+        <v>180</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" s="3">
         <v>38</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="3">
         <v>10</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>86</v>
       </c>
       <c r="G23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="I23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24" s="3">
+        <v>181</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D24" s="3">
         <v>137</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E24" s="3">
         <v>20</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>90</v>
       </c>
       <c r="G24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K24" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C25" s="3">
+        <v>182</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D25" s="3">
         <v>20</v>
       </c>
-      <c r="D25" s="3">
+      <c r="E25" s="3">
         <v>1</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>96</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="H25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C26" s="3">
+        <v>183</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D26" s="3">
         <v>3709</v>
       </c>
-      <c r="D26" s="3">
+      <c r="E26" s="3">
         <v>97</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>102</v>
       </c>
       <c r="G26" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C27" s="3">
+        <v>184</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D27" s="3">
         <v>30</v>
       </c>
-      <c r="D27" s="3">
+      <c r="E27" s="3">
         <v>0</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>107</v>
@@ -3647,442 +3910,481 @@
         <v>107</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="I27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
-      <c r="I28" s="3"/>
+      <c r="C28" s="7"/>
       <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>167</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="3">
+        <v>274</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="3">
         <v>7745</v>
       </c>
-      <c r="D29" s="3">
+      <c r="E29" s="3">
         <v>212</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>168</v>
       </c>
       <c r="B30" s="6"/>
-      <c r="I30" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="6"/>
+      <c r="J30" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C31" s="3">
+        <v>185</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D31" s="3">
         <v>37</v>
       </c>
-      <c r="D31" s="3">
+      <c r="E31" s="3">
         <v>24</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>79</v>
       </c>
       <c r="G31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="I31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C32" s="3">
+        <v>186</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D32" s="3">
         <v>26</v>
       </c>
-      <c r="D32" s="3">
+      <c r="E32" s="3">
         <v>12</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>81</v>
       </c>
       <c r="G32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="I32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C33" s="3">
+        <v>187</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D33" s="3">
         <v>57</v>
       </c>
-      <c r="D33" s="3">
-        <v>23</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>83</v>
+      <c r="E33" s="3">
+        <v>23</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="I33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C34" s="3">
+        <v>188</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D34" s="3">
         <v>70</v>
       </c>
-      <c r="D34" s="3">
+      <c r="E34" s="3">
         <v>10</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>91</v>
       </c>
       <c r="G34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K34" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C35" s="3">
+        <v>189</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D35" s="3">
         <v>318</v>
       </c>
-      <c r="D35" s="3">
+      <c r="E35" s="3">
         <v>45</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G35" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K35" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C36" s="3">
+        <v>190</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D36" s="3">
         <v>82</v>
       </c>
-      <c r="D36" s="3">
+      <c r="E36" s="3">
         <v>10</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>93</v>
       </c>
       <c r="G36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K36" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C37" s="3">
+        <v>191</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D37" s="3">
         <v>7155</v>
       </c>
-      <c r="D37" s="3">
+      <c r="E37" s="3">
         <v>88</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>105</v>
       </c>
       <c r="G37" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
-      <c r="I38" s="3"/>
+      <c r="C38" s="7"/>
       <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>167</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C39" s="3">
+        <v>275</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="3">
         <v>427</v>
       </c>
-      <c r="D39" s="3">
+      <c r="E39" s="3">
         <v>8</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>168</v>
       </c>
       <c r="B40" s="6"/>
-      <c r="I40" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="1:10" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="6"/>
+      <c r="J40" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C41" s="3">
+        <v>192</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D41" s="3">
         <v>20</v>
       </c>
-      <c r="D41" s="3">
+      <c r="E41" s="3">
         <v>4</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>88</v>
       </c>
       <c r="G41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="J41" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K41" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C42" s="3">
+        <v>193</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D42" s="3">
         <v>20</v>
       </c>
-      <c r="D42" s="3">
+      <c r="E42" s="3">
         <v>2</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K42" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C43" s="3">
+        <v>194</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D43" s="3">
         <v>130</v>
       </c>
-      <c r="D43" s="3">
+      <c r="E43" s="3">
         <v>2</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>104</v>
       </c>
       <c r="G43" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K43" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C44" s="3">
+        <v>195</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D44" s="3">
         <v>209</v>
       </c>
-      <c r="D44" s="3">
+      <c r="E44" s="3">
         <v>0</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>107</v>
@@ -4091,30 +4393,33 @@
         <v>107</v>
       </c>
       <c r="H44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K44" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C45" s="3">
+        <v>196</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D45" s="3">
         <v>27</v>
       </c>
-      <c r="D45" s="3">
+      <c r="E45" s="3">
         <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>107</v>
@@ -4123,30 +4428,33 @@
         <v>107</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="I45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K45" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C46" s="3">
+        <v>197</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D46" s="3">
         <v>21</v>
       </c>
-      <c r="D46" s="3">
+      <c r="E46" s="3">
         <v>0</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>107</v>
@@ -4158,439 +4466,478 @@
         <v>107</v>
       </c>
       <c r="I46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J46" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K46" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
-      <c r="I47" s="3"/>
+      <c r="C47" s="7"/>
       <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>167</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C48" s="3">
+        <v>276</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="3">
         <v>22212</v>
       </c>
-      <c r="D48" s="3">
+      <c r="E48" s="3">
         <v>309</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J48" s="3"/>
-    </row>
-    <row r="49" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J48" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>168</v>
       </c>
       <c r="B49" s="6"/>
-      <c r="I49" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="J49" s="3"/>
-    </row>
-    <row r="50" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="6"/>
+      <c r="J49" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C50" s="3">
+        <v>198</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D50" s="3">
         <v>22</v>
       </c>
-      <c r="D50" s="3">
+      <c r="E50" s="3">
         <v>11</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>80</v>
       </c>
       <c r="G50" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="I50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J50" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K50" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C51" s="3">
+        <v>199</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D51" s="3">
         <v>49</v>
       </c>
-      <c r="D51" s="3">
+      <c r="E51" s="3">
         <v>8</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="I51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="J51" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K51" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C52" s="3">
+        <v>200</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D52" s="3">
         <v>39</v>
       </c>
-      <c r="D52" s="3">
+      <c r="E52" s="3">
         <v>6</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>89</v>
       </c>
       <c r="G52" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H52" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="I52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K52" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C53" s="3">
+        <v>201</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D53" s="3">
         <v>431</v>
       </c>
-      <c r="D53" s="3">
+      <c r="E53" s="3">
         <v>22</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>95</v>
       </c>
       <c r="G53" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="I53" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="J53" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J53" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K53" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C54" s="3">
+        <v>202</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D54" s="3">
         <v>26</v>
       </c>
-      <c r="D54" s="3">
+      <c r="E54" s="3">
         <v>1</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>101</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K54" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C55" s="3">
+        <v>203</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D55" s="3">
         <v>21645</v>
       </c>
-      <c r="D55" s="3">
+      <c r="E55" s="3">
         <v>261</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>105</v>
       </c>
       <c r="G55" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="I55" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="J55" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J55" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K55" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
-      <c r="I56" s="3"/>
+      <c r="C56" s="7"/>
       <c r="J56" s="3"/>
-    </row>
-    <row r="57" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>167</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C57" s="3">
+        <v>277</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="3">
         <v>7283</v>
       </c>
-      <c r="D57" s="3">
+      <c r="E57" s="3">
         <v>55</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="I57" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J57" s="3"/>
-    </row>
-    <row r="58" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J57" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>168</v>
       </c>
       <c r="B58" s="6"/>
-      <c r="I58" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="J58" s="3"/>
-    </row>
-    <row r="59" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="6"/>
+      <c r="J58" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C59" s="3">
+        <v>204</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D59" s="3">
         <v>20</v>
       </c>
-      <c r="D59" s="3">
+      <c r="E59" s="3">
         <v>2</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G59" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="I59" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="J59" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K59" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C60" s="3">
+        <v>205</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D60" s="3">
         <v>203</v>
       </c>
-      <c r="D60" s="3">
+      <c r="E60" s="3">
         <v>9</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>98</v>
       </c>
       <c r="G60" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="I60" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="J60" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K60" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C61" s="3">
+        <v>206</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D61" s="3">
         <v>571</v>
       </c>
-      <c r="D61" s="3">
+      <c r="E61" s="3">
         <v>9</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>103</v>
       </c>
       <c r="G61" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H61" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="I61" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="J61" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J61" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K61" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C62" s="3">
+        <v>207</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D62" s="3">
         <v>6324</v>
       </c>
-      <c r="D62" s="3">
+      <c r="E62" s="3">
         <v>35</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>106</v>
       </c>
       <c r="G62" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="I62" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="J62" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K62" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C63" s="3">
+        <v>208</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D63" s="3">
         <v>165</v>
       </c>
-      <c r="D63" s="3">
+      <c r="E63" s="3">
         <v>0</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>107</v>
@@ -4599,20 +4946,24 @@
         <v>107</v>
       </c>
       <c r="H63" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I63" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="J63" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J63" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K63" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
-      <c r="I64" s="3"/>
+      <c r="C64" s="7"/>
       <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
